--- a/Amumbo.xlsx
+++ b/Amumbo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD32374F-57C7-4315-BE90-36D97E3DAC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA30B617-E0F3-4E45-8CF3-0F657654A3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>AGE - Steuer (EUR):</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>die verbliebenen 40% müssen bei Veräußerung nachgeholt werden</t>
+  </si>
+  <si>
+    <t>https://www.justetf.com/en/etf-profile.html?isin=FR0010755611#chart</t>
+  </si>
+  <si>
+    <t>https://www.justetf.com/en/etf-profile.html?isin=IE00BJ0KDR00#chart</t>
   </si>
 </sst>
 </file>
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +563,7 @@
         <v>0.4637</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C13" si="0">B7/0.275</f>
+        <f t="shared" ref="C7:C12" si="0">B7/0.275</f>
         <v>1.686181818181818</v>
       </c>
       <c r="F7">
@@ -850,6 +856,16 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Amumbo.xlsx
+++ b/Amumbo.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA30B617-E0F3-4E45-8CF3-0F657654A3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AA514E-CAC9-4BAA-AD92-AC1E826379FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>AGE - Steuer (EUR):</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Vor dem Split Oktober 2023</t>
   </si>
@@ -54,12 +50,6 @@
     <t>Ende (USD):</t>
   </si>
   <si>
-    <t>Start (EUR):</t>
-  </si>
-  <si>
-    <t>Ende (EUR):</t>
-  </si>
-  <si>
     <t>Tatsächlicher Einstandskurs:</t>
   </si>
   <si>
@@ -72,9 +62,6 @@
     <t>Ertrag nach Steuern</t>
   </si>
   <si>
-    <t>AGE - Steuer (USD)</t>
-  </si>
-  <si>
     <t>Einstandskursanpassung</t>
   </si>
   <si>
@@ -93,18 +80,12 @@
     <t>Tatsächlicher Profit:</t>
   </si>
   <si>
-    <t>Xtrackers MSCI USA (USD)</t>
-  </si>
-  <si>
     <t>Amumbo (EUR)</t>
   </si>
   <si>
     <t>https://my.oekb.at/kapitalmarkt-services/kms-output/fonds-info/sd/af/f?isin=FR0010755611&amp;stmId=472122</t>
   </si>
   <si>
-    <t>https://my.oekb.at/kapitalmarkt-services/kms-output/fonds-info/sd/af/f?isin=IE00BJ0KDR00&amp;stmId=535416</t>
-  </si>
-  <si>
     <t>Quellen:</t>
   </si>
   <si>
@@ -115,9 +96,6 @@
   </si>
   <si>
     <t>https://www.justetf.com/en/etf-profile.html?isin=FR0010755611#chart</t>
-  </si>
-  <si>
-    <t>https://www.justetf.com/en/etf-profile.html?isin=IE00BJ0KDR00#chart</t>
   </si>
 </sst>
 </file>
@@ -446,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,428 +442,283 @@
     <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42552</v>
+      </c>
+      <c r="C3">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>42370</v>
-      </c>
-      <c r="C3">
-        <v>52.38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>42552</v>
-      </c>
-      <c r="H3">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" s="1">
-        <v>45291</v>
+        <v>45473</v>
       </c>
       <c r="C4">
-        <v>137.44999999999999</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1">
-        <v>45473</v>
-      </c>
-      <c r="H4">
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
       <c r="B6">
-        <v>0.29699999999999999</v>
+        <v>45.902299999999997</v>
       </c>
       <c r="C6">
-        <f>B6/0.275</f>
-        <v>1.0799999999999998</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>45.902299999999997</v>
-      </c>
-      <c r="G6">
-        <f>F6/300</f>
+        <f>B6/300</f>
         <v>0.15300766666666665</v>
       </c>
-      <c r="H6">
-        <f>G6/0.275</f>
+      <c r="D6">
+        <f>C6/0.275</f>
         <v>0.55639151515151508</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
       <c r="B7">
-        <v>0.4637</v>
+        <v>51.861400000000003</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C12" si="0">B7/0.275</f>
-        <v>1.686181818181818</v>
-      </c>
-      <c r="F7">
-        <v>51.861400000000003</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G12" si="1">F7/300</f>
+        <f t="shared" ref="C7:C12" si="0">B7/300</f>
         <v>0.17287133333333335</v>
       </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H14" si="2">G7/0.275</f>
+      <c r="D7">
+        <f t="shared" ref="D7:D14" si="1">C7/0.275</f>
         <v>0.62862303030303035</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
       <c r="B8">
-        <v>0.64980000000000004</v>
+        <v>37.014000000000003</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2.3629090909090911</v>
-      </c>
-      <c r="F8">
-        <v>37.014000000000003</v>
-      </c>
-      <c r="G8">
+        <v>0.12338</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="1"/>
-        <v>0.12338</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
         <v>0.44865454545454542</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
       <c r="B9">
-        <v>1.0581</v>
+        <v>17.203399999999998</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>3.8476363636363633</v>
-      </c>
-      <c r="F9">
-        <v>17.203399999999998</v>
-      </c>
-      <c r="G9">
+        <v>5.7344666666666662E-2</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="1"/>
-        <v>5.7344666666666662E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
         <v>0.20852606060606058</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
       <c r="B10">
-        <v>1.4998</v>
+        <v>216.0078</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>5.4538181818181819</v>
-      </c>
-      <c r="F10">
-        <v>216.0078</v>
-      </c>
-      <c r="G10">
+        <v>0.72002600000000005</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="1"/>
-        <v>0.72002600000000005</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
         <v>2.6182763636363635</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2021</v>
       </c>
       <c r="B11">
-        <v>1.6680999999999999</v>
+        <v>21.5122</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>6.0658181818181811</v>
-      </c>
-      <c r="F11">
-        <v>21.5122</v>
-      </c>
-      <c r="G11">
+        <v>7.1707333333333331E-2</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="1"/>
-        <v>7.1707333333333331E-2</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
         <v>0.26075393939393937</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
       <c r="B12">
-        <v>1.7504</v>
+        <v>66.104500000000002</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>6.3650909090909087</v>
-      </c>
-      <c r="F12">
-        <v>66.104500000000002</v>
-      </c>
-      <c r="G12">
+        <v>0.22034833333333334</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="1"/>
-        <v>0.22034833333333334</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
         <v>0.80126666666666668</v>
       </c>
-      <c r="I12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2022</v>
       </c>
-      <c r="F13">
+      <c r="B13">
         <v>0.2203</v>
       </c>
-      <c r="G13">
-        <f>F13</f>
+      <c r="C13">
+        <f>B13</f>
         <v>0.2203</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
+      <c r="D13">
+        <f t="shared" si="1"/>
         <v>0.80109090909090896</v>
       </c>
-      <c r="I13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.91779999999999995</v>
+        <v>1.2216</v>
       </c>
       <c r="C14">
-        <f>B14/0.275</f>
-        <v>3.3374545454545448</v>
-      </c>
-      <c r="F14">
+        <f>B14</f>
         <v>1.2216</v>
       </c>
-      <c r="G14">
-        <f>F14</f>
-        <v>1.2216</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
+      <c r="D14">
+        <f t="shared" si="1"/>
         <v>4.442181818181818</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <f>SUM(B6:B14)</f>
-        <v>8.3047000000000004</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <f>SUM(C6:C14)</f>
-        <v>30.19890909090909</v>
-      </c>
-      <c r="G15">
-        <f>SUM(G6:G14)</f>
         <v>2.9605853333333334</v>
       </c>
-      <c r="H15">
-        <f>SUM(H6:H14)</f>
+      <c r="D15">
+        <f>SUM(D6:D14)</f>
         <v>10.765764848484848</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <f>C3+C15</f>
+        <v>6.2105853333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <f>C3+D15</f>
+        <v>14.015764848484848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <f>(C4-C19)*0.275 + 0.4 * C15/0.6</f>
+        <v>3.7046382222222225</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>7</v>
-      </c>
-      <c r="C18">
-        <f>C3+B15</f>
-        <v>60.684700000000007</v>
-      </c>
-      <c r="H18">
-        <f>H3+G15</f>
-        <v>6.2105853333333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <f>C3+C15</f>
-        <v>82.578909090909093</v>
-      </c>
-      <c r="H19">
-        <f>H3+H15</f>
-        <v>14.015764848484848</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <f>(C4-C19)*0.275</f>
-        <v>15.089549999999997</v>
-      </c>
-      <c r="H21">
-        <f>(H4-H19)*0.275 + 0.4 * G15/0.6</f>
-        <v>3.7046382222222225</v>
-      </c>
-      <c r="I21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
       </c>
       <c r="C22">
         <f>C4-C21</f>
-        <v>122.36044999999999</v>
-      </c>
-      <c r="H22">
-        <f>H4-H21</f>
         <v>16.605361777777777</v>
       </c>
-      <c r="I22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <f>C22-C18</f>
-        <v>61.675749999999979</v>
-      </c>
-      <c r="H23">
-        <f>H22-H18</f>
         <v>10.394776444444442</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2">
         <f>C23/C18</f>
-        <v>1.0163311345363819</v>
-      </c>
-      <c r="H24" s="2">
-        <f>H23/H18</f>
         <v>1.6737192851459264</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156DC889-747A-47E2-9090-C9ADB5BAAE41}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Amumbo.xlsx
+++ b/Amumbo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AA514E-CAC9-4BAA-AD92-AC1E826379FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8230E08-9329-4DC3-BB29-CC65AFAE86E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,8 +666,8 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <f>(C4-C19)*0.275 + 0.4 * C15/0.6</f>
-        <v>3.7046382222222225</v>
+        <f>(C4-C19)*0.275</f>
+        <v>1.7309146666666666</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="C22">
         <f>C4-C21</f>
-        <v>16.605361777777777</v>
+        <v>18.579085333333332</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -691,7 +691,7 @@
       </c>
       <c r="C23">
         <f>C22-C18</f>
-        <v>10.394776444444442</v>
+        <v>12.368499999999997</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
       </c>
       <c r="C24" s="2">
         <f>C23/C18</f>
-        <v>1.6737192851459264</v>
+        <v>1.9915192105349593</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">

--- a/Amumbo.xlsx
+++ b/Amumbo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8230E08-9329-4DC3-BB29-CC65AFAE86E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A629156F-1295-4527-8025-CE0DFA11F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Vor dem Split Oktober 2023</t>
   </si>
@@ -87,12 +87,6 @@
   </si>
   <si>
     <t>Quellen:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: AgEs von außerordentlichen Erträgen sind nur zu 60% versteuert, </t>
-  </si>
-  <si>
-    <t>die verbliebenen 40% müssen bei Veräußerung nachgeholt werden</t>
   </si>
   <si>
     <t>https://www.justetf.com/en/etf-profile.html?isin=FR0010755611#chart</t>
@@ -427,7 +421,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +637,7 @@
         <v>10.765764848484848</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -652,7 +646,7 @@
         <v>6.2105853333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -661,7 +655,7 @@
         <v>14.015764848484848</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -669,11 +663,8 @@
         <f>(C4-C19)*0.275</f>
         <v>1.7309146666666666</v>
       </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -681,11 +672,8 @@
         <f>C4-C21</f>
         <v>18.579085333333332</v>
       </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -694,7 +682,7 @@
         <v>12.368499999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -703,19 +691,19 @@
         <v>1.9915192105349593</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Amumbo.xlsx
+++ b/Amumbo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A629156F-1295-4527-8025-CE0DFA11F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1B721-FBAA-4AD0-B449-86A178400E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="1425" windowWidth="20100" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Amumbo" sheetId="1" r:id="rId1"/>
+    <sheet name="Xtrackers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Vor dem Split Oktober 2023</t>
-  </si>
-  <si>
-    <t>Nach dem Split Oktober 2023</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Start (USD):</t>
   </si>
@@ -65,9 +60,6 @@
     <t>Einstandskursanpassung</t>
   </si>
   <si>
-    <t>AGE - Steuer (EUR)</t>
-  </si>
-  <si>
     <t>Rohdaten</t>
   </si>
   <si>
@@ -90,6 +82,63 @@
   </si>
   <si>
     <t>https://www.justetf.com/en/etf-profile.html?isin=FR0010755611#chart</t>
+  </si>
+  <si>
+    <t>Ende:</t>
+  </si>
+  <si>
+    <t>Start:</t>
+  </si>
+  <si>
+    <t>AGE - Steuer</t>
+  </si>
+  <si>
+    <t>2022 (Vor 300:1 Split)</t>
+  </si>
+  <si>
+    <t>2022 (Nach 300:1 Split)</t>
+  </si>
+  <si>
+    <t>Kurswert (jeweils 30.06.)</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>%AgEs</t>
+  </si>
+  <si>
+    <t>Bemessungsgrundlage</t>
+  </si>
+  <si>
+    <t>Durschnitt:</t>
+  </si>
+  <si>
+    <t>Note: Für die Summen wurde das Jahr 2022 natürlich nur 1 Mal berücksichtigt</t>
+  </si>
+  <si>
+    <t>Note: 2021 wo AgEs zu zahlen waren trotz Kursverlusten wurde im Schnitt ignoriert</t>
+  </si>
+  <si>
+    <t>Würde man die Periode mit zB 100% gewichten wäre der schnitt bei 89.8%</t>
+  </si>
+  <si>
+    <t>Xtrackers MSCI USA (USD)</t>
+  </si>
+  <si>
+    <t>AGE - Steuer (USD)</t>
+  </si>
+  <si>
+    <t>https://my.oekb.at/kapitalmarkt-services/kms-output/fonds-info/sd/af/f?isin=IE00BJ0KDR00&amp;stmId=535416</t>
+  </si>
+  <si>
+    <t>https://www.justetf.com/en/etf-profile.html?isin=IE00BJ0KDR00#chart</t>
+  </si>
+  <si>
+    <t>Kurswert (jeweils 31.12.)</t>
+  </si>
+  <si>
+    <t>Note: 2018 und 2022 wo AgEs zu zahlen waren trotz Kursverlusten wurde im Schnitt ignoriert</t>
   </si>
 </sst>
 </file>
@@ -133,10 +182,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -418,32 +475,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>42552</v>
@@ -452,9 +508,9 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>45473</v>
@@ -463,19 +519,31 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>2016</v>
       </c>
       <c r="B6">
@@ -489,9 +557,24 @@
         <f>C6/0.275</f>
         <v>0.55639151515151508</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F6">
+        <f>E6-C3</f>
+        <v>0.94000000000000039</v>
+      </c>
+      <c r="G6">
+        <f>D6/0.6</f>
+        <v>0.92731919191919188</v>
+      </c>
+      <c r="H6" s="2">
+        <f>G6/F6</f>
+        <v>0.98650977863743772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>2017</v>
       </c>
       <c r="B7">
@@ -505,9 +588,24 @@
         <f t="shared" ref="D7:D14" si="1">C7/0.275</f>
         <v>0.62862303030303035</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E7">
+        <v>5.08</v>
+      </c>
+      <c r="F7">
+        <f>E7-E6</f>
+        <v>0.88999999999999968</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G14" si="2">D7/0.6</f>
+        <v>1.0477050505050507</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:H14" si="3">G7/F7</f>
+        <v>1.1771966859607315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2018</v>
       </c>
       <c r="B8">
@@ -521,9 +619,24 @@
         <f t="shared" si="1"/>
         <v>0.44865454545454542</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E8">
+        <v>6.26</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F12" si="4">E8-E7</f>
+        <v>1.1799999999999997</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.74775757575757573</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.633692860811505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>2019</v>
       </c>
       <c r="B9">
@@ -537,9 +650,24 @@
         <f t="shared" si="1"/>
         <v>0.20852606060606058</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="E9">
+        <v>6.64</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>0.37999999999999989</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.34754343434343432</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.91458798511430106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2020</v>
       </c>
       <c r="B10">
@@ -553,9 +681,24 @@
         <f t="shared" si="1"/>
         <v>2.6182763636363635</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E10">
+        <v>11.68</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>5.04</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>4.3637939393939398</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.86583213083213095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>2021</v>
       </c>
       <c r="B11">
@@ -569,10 +712,25 @@
         <f t="shared" si="1"/>
         <v>0.26075393939393937</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2022</v>
+      <c r="E11">
+        <v>10.89</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>-0.78999999999999915</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.43458989898989897</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.5501137961897461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B12">
         <v>66.104500000000002</v>
@@ -585,13 +743,25 @@
         <f t="shared" si="1"/>
         <v>0.80126666666666668</v>
       </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2022</v>
+      <c r="E12">
+        <v>13.35</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>2.4599999999999991</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>1.3354444444444444</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.54286359530261985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B13">
         <v>0.2203</v>
@@ -604,12 +774,24 @@
         <f t="shared" si="1"/>
         <v>0.80109090909090896</v>
       </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E13">
+        <v>13.35</v>
+      </c>
+      <c r="F13">
+        <f>E13-E11</f>
+        <v>2.4599999999999991</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1.335151515151515</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.54274451835427462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>2023</v>
       </c>
       <c r="B14">
@@ -623,90 +805,510 @@
         <f t="shared" si="1"/>
         <v>4.442181818181818</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E14">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="F14">
+        <f>E14-E13</f>
+        <v>6.9599999999999991</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>7.4036363636363633</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0637408568443052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C6:C12) + C14</f>
+        <v>2.7402853333333335</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D6:D12) + D14</f>
+        <v>9.9646739393939399</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4">
+        <f>(SUM(H6:H10)+H13+H14)/7</f>
+        <v>0.88347211665066949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f>C3+C16</f>
+        <v>5.9902853333333335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <f>C3+D16</f>
+        <v>13.21467393939394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f>(C4-C20)*0.275</f>
+        <v>1.9512146666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
-        <f>SUM(C6:C14)</f>
-        <v>2.9605853333333334</v>
-      </c>
-      <c r="D15">
-        <f>SUM(D6:D14)</f>
-        <v>10.765764848484848</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <f>C3+C15</f>
-        <v>6.2105853333333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <f>C3+D15</f>
-        <v>14.015764848484848</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <f>(C4-C19)*0.275</f>
-        <v>1.7309146666666666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <f>C4-C21</f>
-        <v>18.579085333333332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C23">
+        <f>C4-C22</f>
+        <v>18.358785333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <f>C23-C19</f>
+        <v>12.368500000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <f>C24/C19</f>
+        <v>2.0647597421068871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="C23">
-        <f>C22-C18</f>
-        <v>12.368499999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2">
-        <f>C23/C18</f>
-        <v>1.9915192105349593</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>17</v>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F77CC3-90D5-4CBA-A465-8C93CB883022}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42370</v>
+      </c>
+      <c r="C3">
+        <v>52.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C4">
+        <v>137.44999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C6">
+        <f>B6/0.275</f>
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="D6">
+        <v>58.22</v>
+      </c>
+      <c r="E6" s="6">
+        <f>D6-C3</f>
+        <v>5.8399999999999963</v>
+      </c>
+      <c r="F6">
+        <f>C6/0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G6" s="2">
+        <f>F6/E6</f>
+        <v>0.30821917808219196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7">
+        <v>0.4637</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C12" si="0">B7/0.275</f>
+        <v>1.686181818181818</v>
+      </c>
+      <c r="D7">
+        <v>71.3</v>
+      </c>
+      <c r="E7">
+        <f>D7-D6</f>
+        <v>13.079999999999998</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F13" si="1">C7/0.6</f>
+        <v>2.8103030303030301</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ref="G7:G13" si="2">F7/E7</f>
+        <v>0.2148549717357057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2.3629090909090911</v>
+      </c>
+      <c r="D8">
+        <v>66.7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E13" si="3">D8-D7</f>
+        <v>-4.5999999999999943</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3.9381818181818184</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.8561264822134399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9">
+        <v>1.0581</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3.8476363636363633</v>
+      </c>
+      <c r="D9">
+        <v>88.2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>21.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>6.4127272727272722</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.29826638477801265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10">
+        <v>1.4998</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5.4538181818181819</v>
+      </c>
+      <c r="D10">
+        <v>106.67</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>18.47</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>9.0896969696969698</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.49213302488884519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11">
+        <v>1.6680999999999999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>6.0658181818181811</v>
+      </c>
+      <c r="D11">
+        <v>135.07</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>28.399999999999991</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>10.109696969696969</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3559752454118652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12">
+        <v>1.7504</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>6.3650909090909087</v>
+      </c>
+      <c r="D12">
+        <v>108.45</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>-26.61999999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>10.608484848484848</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.39851558409034005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="C13">
+        <f>B13/0.275</f>
+        <v>3.3374545454545448</v>
+      </c>
+      <c r="D13">
+        <v>137.44999999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>28.999999999999986</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5.5624242424242416</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19180773249738772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B6:B13)</f>
+        <v>8.3047000000000004</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C6:C13)</f>
+        <v>30.19890909090909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4">
+        <f>(G6+G7+G9+G10+G11+G13)/6</f>
+        <v>0.31020942289900139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f>C3+B15</f>
+        <v>60.684700000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f>C3+C15</f>
+        <v>82.578909090909093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f>(C4-C19)*0.275</f>
+        <v>15.089549999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <f>C4-C21</f>
+        <v>122.36044999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <f>C22-C18</f>
+        <v>61.675749999999979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C23/C18</f>
+        <v>1.0163311345363819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Amumbo.xlsx
+++ b/Amumbo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1B721-FBAA-4AD0-B449-86A178400E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E7F3B-4611-4F67-AD40-F7A3661B65DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1425" windowWidth="20100" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="1425" windowWidth="22590" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amumbo" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Start (USD):</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Note: 2018 und 2022 wo AgEs zu zahlen waren trotz Kursverlusten wurde im Schnitt ignoriert</t>
+  </si>
+  <si>
+    <t>Profit Kest nur am Ende:</t>
   </si>
 </sst>
 </file>
@@ -477,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,6 +911,15 @@
         <v>2.0647597421068871</v>
       </c>
     </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2">
+        <f>(C4-C3) * (1-0.275) /C3</f>
+        <v>3.8056923076923073</v>
+      </c>
+    </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
@@ -932,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F77CC3-90D5-4CBA-A465-8C93CB883022}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,6 +1305,15 @@
         <v>1.0163311345363819</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2">
+        <f>(C4-C3) * (1-0.275) /C3</f>
+        <v>1.1774675448644518</v>
+      </c>
+    </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
